--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ltb</t>
   </si>
   <si>
     <t>Ltbr</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>2.40401774758035</v>
+        <v>0.2359405</v>
       </c>
       <c r="H2">
-        <v>2.40401774758035</v>
+        <v>0.471881</v>
       </c>
       <c r="I2">
-        <v>0.4191909513105071</v>
+        <v>0.03579981219578291</v>
       </c>
       <c r="J2">
-        <v>0.4191909513105071</v>
+        <v>0.02428010125708996</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.3382609512675</v>
+        <v>13.466326</v>
       </c>
       <c r="N2">
-        <v>13.3382609512675</v>
+        <v>26.932652</v>
       </c>
       <c r="O2">
-        <v>0.1825604521720205</v>
+        <v>0.178436493443925</v>
       </c>
       <c r="P2">
-        <v>0.1825604521720205</v>
+        <v>0.1320271070991917</v>
       </c>
       <c r="Q2">
-        <v>32.06541604870503</v>
+        <v>3.177251689603</v>
       </c>
       <c r="R2">
-        <v>32.06541604870503</v>
+        <v>12.709006758412</v>
       </c>
       <c r="S2">
-        <v>0.0765276896176656</v>
+        <v>0.006387992954166563</v>
       </c>
       <c r="T2">
-        <v>0.0765276896176656</v>
+        <v>0.003205631529049035</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>2.40401774758035</v>
+        <v>0.2359405</v>
       </c>
       <c r="H3">
-        <v>2.40401774758035</v>
+        <v>0.471881</v>
       </c>
       <c r="I3">
-        <v>0.4191909513105071</v>
+        <v>0.03579981219578291</v>
       </c>
       <c r="J3">
-        <v>0.4191909513105071</v>
+        <v>0.02428010125708996</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.447036312322</v>
+        <v>14.56078733333333</v>
       </c>
       <c r="N3">
-        <v>13.447036312322</v>
+        <v>43.682362</v>
       </c>
       <c r="O3">
-        <v>0.1840492578845371</v>
+        <v>0.1929387298022281</v>
       </c>
       <c r="P3">
-        <v>0.1840492578845371</v>
+        <v>0.2141362048609124</v>
       </c>
       <c r="Q3">
-        <v>32.32691394717951</v>
+        <v>3.435479443820333</v>
       </c>
       <c r="R3">
-        <v>32.32691394717951</v>
+        <v>20.612876662922</v>
       </c>
       <c r="S3">
-        <v>0.07715178350061194</v>
+        <v>0.00690717029221267</v>
       </c>
       <c r="T3">
-        <v>0.07715178350061194</v>
+        <v>0.005199248736831912</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2.40401774758035</v>
+        <v>0.2359405</v>
       </c>
       <c r="H4">
-        <v>2.40401774758035</v>
+        <v>0.471881</v>
       </c>
       <c r="I4">
-        <v>0.4191909513105071</v>
+        <v>0.03579981219578291</v>
       </c>
       <c r="J4">
-        <v>0.4191909513105071</v>
+        <v>0.02428010125708996</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.2568814308486</v>
+        <v>13.381108</v>
       </c>
       <c r="N4">
-        <v>13.2568814308486</v>
+        <v>40.143324</v>
       </c>
       <c r="O4">
-        <v>0.1814466126617952</v>
+        <v>0.1773073063814475</v>
       </c>
       <c r="P4">
-        <v>0.1814466126617952</v>
+        <v>0.1967874139191919</v>
       </c>
       <c r="Q4">
-        <v>31.86977823732842</v>
+        <v>3.157145312074</v>
       </c>
       <c r="R4">
-        <v>31.86977823732842</v>
+        <v>18.942871872444</v>
       </c>
       <c r="S4">
-        <v>0.07606077817376704</v>
+        <v>0.006347568269395962</v>
       </c>
       <c r="T4">
-        <v>0.07606077817376704</v>
+        <v>0.004778018336078854</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>2.40401774758035</v>
+        <v>0.2359405</v>
       </c>
       <c r="H5">
-        <v>2.40401774758035</v>
+        <v>0.471881</v>
       </c>
       <c r="I5">
-        <v>0.4191909513105071</v>
+        <v>0.03579981219578291</v>
       </c>
       <c r="J5">
-        <v>0.4191909513105071</v>
+        <v>0.02428010125708996</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.5731722865333</v>
+        <v>15.58761566666667</v>
       </c>
       <c r="N5">
-        <v>15.5731722865333</v>
+        <v>46.762847</v>
       </c>
       <c r="O5">
-        <v>0.2131496290835523</v>
+        <v>0.2065447903690724</v>
       </c>
       <c r="P5">
-        <v>0.2131496290835523</v>
+        <v>0.2292371137135739</v>
       </c>
       <c r="Q5">
-        <v>37.43818256295251</v>
+        <v>3.677749834201167</v>
       </c>
       <c r="R5">
-        <v>37.43818256295251</v>
+        <v>22.066499005207</v>
       </c>
       <c r="S5">
-        <v>0.08935039578701602</v>
+        <v>0.007394264705230144</v>
       </c>
       <c r="T5">
-        <v>0.08935039578701602</v>
+        <v>0.005565900332848621</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>2.40401774758035</v>
+        <v>0.2359405</v>
       </c>
       <c r="H6">
-        <v>2.40401774758035</v>
+        <v>0.471881</v>
       </c>
       <c r="I6">
-        <v>0.4191909513105071</v>
+        <v>0.03579981219578291</v>
       </c>
       <c r="J6">
-        <v>0.4191909513105071</v>
+        <v>0.02428010125708996</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.501602829455299</v>
+        <v>9.526935333333334</v>
       </c>
       <c r="N6">
-        <v>8.501602829455299</v>
+        <v>28.580806</v>
       </c>
       <c r="O6">
-        <v>0.1163612304784606</v>
+        <v>0.1262373222025838</v>
       </c>
       <c r="P6">
-        <v>0.1163612304784606</v>
+        <v>0.1401065567083116</v>
       </c>
       <c r="Q6">
-        <v>20.43800408488986</v>
+        <v>2.247789886014333</v>
       </c>
       <c r="R6">
-        <v>20.43800408488986</v>
+        <v>13.486739316086</v>
       </c>
       <c r="S6">
-        <v>0.04877757489992705</v>
+        <v>0.004519272426951035</v>
       </c>
       <c r="T6">
-        <v>0.04877757489992705</v>
+        <v>0.003401801383660022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>2.40401774758035</v>
+        <v>0.2359405</v>
       </c>
       <c r="H7">
-        <v>2.40401774758035</v>
+        <v>0.471881</v>
       </c>
       <c r="I7">
-        <v>0.4191909513105071</v>
+        <v>0.03579981219578291</v>
       </c>
       <c r="J7">
-        <v>0.4191909513105071</v>
+        <v>0.02428010125708996</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.94520610742514</v>
+        <v>8.945679999999999</v>
       </c>
       <c r="N7">
-        <v>8.94520610742514</v>
+        <v>17.89136</v>
       </c>
       <c r="O7">
-        <v>0.1224328177196345</v>
+        <v>0.1185353578007432</v>
       </c>
       <c r="P7">
-        <v>0.1224328177196345</v>
+        <v>0.08770560369881859</v>
       </c>
       <c r="Q7">
-        <v>21.50443423801418</v>
+        <v>2.11064821204</v>
       </c>
       <c r="R7">
-        <v>21.50443423801418</v>
+        <v>8.442592848159999</v>
       </c>
       <c r="S7">
-        <v>0.0513227293315195</v>
+        <v>0.004243543547826537</v>
       </c>
       <c r="T7">
-        <v>0.0513227293315195</v>
+        <v>0.002129500938621519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.87062265074311</v>
+        <v>2.708283</v>
       </c>
       <c r="H8">
-        <v>2.87062265074311</v>
+        <v>8.124848999999999</v>
       </c>
       <c r="I8">
-        <v>0.5005533095708872</v>
+        <v>0.4109342091460836</v>
       </c>
       <c r="J8">
-        <v>0.5005533095708872</v>
+        <v>0.4180548833679807</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.3382609512675</v>
+        <v>13.466326</v>
       </c>
       <c r="N8">
-        <v>13.3382609512675</v>
+        <v>26.932652</v>
       </c>
       <c r="O8">
-        <v>0.1825604521720205</v>
+        <v>0.178436493443925</v>
       </c>
       <c r="P8">
-        <v>0.1825604521720205</v>
+        <v>0.1320271070991917</v>
       </c>
       <c r="Q8">
-        <v>38.28911400823083</v>
+        <v>36.47062177825799</v>
       </c>
       <c r="R8">
-        <v>38.28911400823083</v>
+        <v>218.823730669548</v>
       </c>
       <c r="S8">
-        <v>0.0913812385314625</v>
+        <v>0.07332565931617964</v>
       </c>
       <c r="T8">
-        <v>0.0913812385314625</v>
+        <v>0.05519457685976447</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.87062265074311</v>
+        <v>2.708283</v>
       </c>
       <c r="H9">
-        <v>2.87062265074311</v>
+        <v>8.124848999999999</v>
       </c>
       <c r="I9">
-        <v>0.5005533095708872</v>
+        <v>0.4109342091460836</v>
       </c>
       <c r="J9">
-        <v>0.5005533095708872</v>
+        <v>0.4180548833679807</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.447036312322</v>
+        <v>14.56078733333333</v>
       </c>
       <c r="N9">
-        <v>13.447036312322</v>
+        <v>43.682362</v>
       </c>
       <c r="O9">
-        <v>0.1840492578845371</v>
+        <v>0.1929387298022281</v>
       </c>
       <c r="P9">
-        <v>0.1840492578845371</v>
+        <v>0.2141362048609124</v>
       </c>
       <c r="Q9">
-        <v>38.60136702351664</v>
+        <v>39.43473280148199</v>
       </c>
       <c r="R9">
-        <v>38.60136702351664</v>
+        <v>354.912595213338</v>
       </c>
       <c r="S9">
-        <v>0.09212646515817073</v>
+        <v>0.07928512434492851</v>
       </c>
       <c r="T9">
-        <v>0.09212646515817073</v>
+        <v>0.08952068614799075</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.87062265074311</v>
+        <v>2.708283</v>
       </c>
       <c r="H10">
-        <v>2.87062265074311</v>
+        <v>8.124848999999999</v>
       </c>
       <c r="I10">
-        <v>0.5005533095708872</v>
+        <v>0.4109342091460836</v>
       </c>
       <c r="J10">
-        <v>0.5005533095708872</v>
+        <v>0.4180548833679807</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.2568814308486</v>
+        <v>13.381108</v>
       </c>
       <c r="N10">
-        <v>13.2568814308486</v>
+        <v>40.143324</v>
       </c>
       <c r="O10">
-        <v>0.1814466126617952</v>
+        <v>0.1773073063814475</v>
       </c>
       <c r="P10">
-        <v>0.1814466126617952</v>
+        <v>0.1967874139191919</v>
       </c>
       <c r="Q10">
-        <v>38.05550411360972</v>
+        <v>36.23982731756399</v>
       </c>
       <c r="R10">
-        <v>38.05550411360972</v>
+        <v>326.158445858076</v>
       </c>
       <c r="S10">
-        <v>0.09082370247828843</v>
+        <v>0.07286163772368247</v>
       </c>
       <c r="T10">
-        <v>0.09082370247828843</v>
+        <v>0.08226793937427433</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.87062265074311</v>
+        <v>2.708283</v>
       </c>
       <c r="H11">
-        <v>2.87062265074311</v>
+        <v>8.124848999999999</v>
       </c>
       <c r="I11">
-        <v>0.5005533095708872</v>
+        <v>0.4109342091460836</v>
       </c>
       <c r="J11">
-        <v>0.5005533095708872</v>
+        <v>0.4180548833679807</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.5731722865333</v>
+        <v>15.58761566666667</v>
       </c>
       <c r="N11">
-        <v>15.5731722865333</v>
+        <v>46.762847</v>
       </c>
       <c r="O11">
-        <v>0.2131496290835523</v>
+        <v>0.2065447903690724</v>
       </c>
       <c r="P11">
-        <v>0.2131496290835523</v>
+        <v>0.2292371137135739</v>
       </c>
       <c r="Q11">
-        <v>44.70470110964736</v>
+        <v>42.21567452056699</v>
       </c>
       <c r="R11">
-        <v>44.70470110964736</v>
+        <v>379.941070685103</v>
       </c>
       <c r="S11">
-        <v>0.1066927522715791</v>
+        <v>0.0848763200835584</v>
       </c>
       <c r="T11">
-        <v>0.1066927522715791</v>
+        <v>0.09583369483714069</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.87062265074311</v>
+        <v>2.708283</v>
       </c>
       <c r="H12">
-        <v>2.87062265074311</v>
+        <v>8.124848999999999</v>
       </c>
       <c r="I12">
-        <v>0.5005533095708872</v>
+        <v>0.4109342091460836</v>
       </c>
       <c r="J12">
-        <v>0.5005533095708872</v>
+        <v>0.4180548833679807</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.501602829455299</v>
+        <v>9.526935333333334</v>
       </c>
       <c r="N12">
-        <v>8.501602829455299</v>
+        <v>28.580806</v>
       </c>
       <c r="O12">
-        <v>0.1163612304784606</v>
+        <v>0.1262373222025838</v>
       </c>
       <c r="P12">
-        <v>0.1163612304784606</v>
+        <v>0.1401065567083116</v>
       </c>
       <c r="Q12">
-        <v>24.4048936498561</v>
+        <v>25.801637005366</v>
       </c>
       <c r="R12">
-        <v>24.4048936498561</v>
+        <v>232.214733048294</v>
       </c>
       <c r="S12">
-        <v>0.05824499902173422</v>
+        <v>0.0518752341640381</v>
       </c>
       <c r="T12">
-        <v>0.05824499902173422</v>
+        <v>0.05857223022378257</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.87062265074311</v>
+        <v>2.708283</v>
       </c>
       <c r="H13">
-        <v>2.87062265074311</v>
+        <v>8.124848999999999</v>
       </c>
       <c r="I13">
-        <v>0.5005533095708872</v>
+        <v>0.4109342091460836</v>
       </c>
       <c r="J13">
-        <v>0.5005533095708872</v>
+        <v>0.4180548833679807</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.94520610742514</v>
+        <v>8.945679999999999</v>
       </c>
       <c r="N13">
-        <v>8.94520610742514</v>
+        <v>17.89136</v>
       </c>
       <c r="O13">
-        <v>0.1224328177196345</v>
+        <v>0.1185353578007432</v>
       </c>
       <c r="P13">
-        <v>0.1224328177196345</v>
+        <v>0.08770560369881859</v>
       </c>
       <c r="Q13">
-        <v>25.67831126754021</v>
+        <v>24.22743306744</v>
       </c>
       <c r="R13">
-        <v>25.67831126754021</v>
+        <v>145.36459840464</v>
       </c>
       <c r="S13">
-        <v>0.06128415210965221</v>
+        <v>0.04871023351369646</v>
       </c>
       <c r="T13">
-        <v>0.06128415210965221</v>
+        <v>0.03666575592502794</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.460258554205749</v>
+        <v>2.895335666666667</v>
       </c>
       <c r="H14">
-        <v>0.460258554205749</v>
+        <v>8.686007</v>
       </c>
       <c r="I14">
-        <v>0.08025573911860565</v>
+        <v>0.4393161543288184</v>
       </c>
       <c r="J14">
-        <v>0.08025573911860565</v>
+        <v>0.4469286313282209</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.3382609512675</v>
+        <v>13.466326</v>
       </c>
       <c r="N14">
-        <v>13.3382609512675</v>
+        <v>26.932652</v>
       </c>
       <c r="O14">
-        <v>0.1825604521720205</v>
+        <v>0.178436493443925</v>
       </c>
       <c r="P14">
-        <v>0.1825604521720205</v>
+        <v>0.1320271070991917</v>
       </c>
       <c r="Q14">
-        <v>6.139048701049378</v>
+        <v>38.98953396676066</v>
       </c>
       <c r="R14">
-        <v>6.139048701049378</v>
+        <v>233.937203800564</v>
       </c>
       <c r="S14">
-        <v>0.01465152402289236</v>
+        <v>0.07839003409170454</v>
       </c>
       <c r="T14">
-        <v>0.01465152402289236</v>
+        <v>0.05900669427406617</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.460258554205749</v>
+        <v>2.895335666666667</v>
       </c>
       <c r="H15">
-        <v>0.460258554205749</v>
+        <v>8.686007</v>
       </c>
       <c r="I15">
-        <v>0.08025573911860565</v>
+        <v>0.4393161543288184</v>
       </c>
       <c r="J15">
-        <v>0.08025573911860565</v>
+        <v>0.4469286313282209</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.447036312322</v>
+        <v>14.56078733333333</v>
       </c>
       <c r="N15">
-        <v>13.447036312322</v>
+        <v>43.682362</v>
       </c>
       <c r="O15">
-        <v>0.1840492578845371</v>
+        <v>0.1929387298022281</v>
       </c>
       <c r="P15">
-        <v>0.1840492578845371</v>
+        <v>0.2141362048609124</v>
       </c>
       <c r="Q15">
-        <v>6.189113491461531</v>
+        <v>42.15836690094822</v>
       </c>
       <c r="R15">
-        <v>6.189113491461531</v>
+        <v>379.425302108534</v>
       </c>
       <c r="S15">
-        <v>0.01477100922575438</v>
+        <v>0.08476110079780184</v>
       </c>
       <c r="T15">
-        <v>0.01477100922575438</v>
+        <v>0.09570360095630709</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.460258554205749</v>
+        <v>2.895335666666667</v>
       </c>
       <c r="H16">
-        <v>0.460258554205749</v>
+        <v>8.686007</v>
       </c>
       <c r="I16">
-        <v>0.08025573911860565</v>
+        <v>0.4393161543288184</v>
       </c>
       <c r="J16">
-        <v>0.08025573911860565</v>
+        <v>0.4469286313282209</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.2568814308486</v>
+        <v>13.381108</v>
       </c>
       <c r="N16">
-        <v>13.2568814308486</v>
+        <v>40.143324</v>
       </c>
       <c r="O16">
-        <v>0.1814466126617952</v>
+        <v>0.1773073063814475</v>
       </c>
       <c r="P16">
-        <v>0.1814466126617952</v>
+        <v>0.1967874139191919</v>
       </c>
       <c r="Q16">
-        <v>6.101593080639418</v>
+        <v>38.74279925191866</v>
       </c>
       <c r="R16">
-        <v>6.101593080639418</v>
+        <v>348.685193267268</v>
       </c>
       <c r="S16">
-        <v>0.01456213200973972</v>
+        <v>0.07789396397389908</v>
       </c>
       <c r="T16">
-        <v>0.01456213200973972</v>
+        <v>0.08794992956552453</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.460258554205749</v>
+        <v>2.895335666666667</v>
       </c>
       <c r="H17">
-        <v>0.460258554205749</v>
+        <v>8.686007</v>
       </c>
       <c r="I17">
-        <v>0.08025573911860565</v>
+        <v>0.4393161543288184</v>
       </c>
       <c r="J17">
-        <v>0.08025573911860565</v>
+        <v>0.4469286313282209</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.5731722865333</v>
+        <v>15.58761566666667</v>
       </c>
       <c r="N17">
-        <v>15.5731722865333</v>
+        <v>46.762847</v>
       </c>
       <c r="O17">
-        <v>0.2131496290835523</v>
+        <v>0.2065447903690724</v>
       </c>
       <c r="P17">
-        <v>0.2131496290835523</v>
+        <v>0.2292371137135739</v>
       </c>
       <c r="Q17">
-        <v>7.167685760996855</v>
+        <v>45.13137959799211</v>
       </c>
       <c r="R17">
-        <v>7.167685760996855</v>
+        <v>406.182416381929</v>
       </c>
       <c r="S17">
-        <v>0.01710648102495713</v>
+        <v>0.09073846300159287</v>
       </c>
       <c r="T17">
-        <v>0.01710648102495713</v>
+        <v>0.1024526294816393</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.460258554205749</v>
+        <v>2.895335666666667</v>
       </c>
       <c r="H18">
-        <v>0.460258554205749</v>
+        <v>8.686007</v>
       </c>
       <c r="I18">
-        <v>0.08025573911860565</v>
+        <v>0.4393161543288184</v>
       </c>
       <c r="J18">
-        <v>0.08025573911860565</v>
+        <v>0.4469286313282209</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.501602829455299</v>
+        <v>9.526935333333334</v>
       </c>
       <c r="N18">
-        <v>8.501602829455299</v>
+        <v>28.580806</v>
       </c>
       <c r="O18">
-        <v>0.1163612304784606</v>
+        <v>0.1262373222025838</v>
       </c>
       <c r="P18">
-        <v>0.1163612304784606</v>
+        <v>0.1401065567083116</v>
       </c>
       <c r="Q18">
-        <v>3.912935426716601</v>
+        <v>27.58367566462689</v>
       </c>
       <c r="R18">
-        <v>3.912935426716601</v>
+        <v>248.253080981642</v>
       </c>
       <c r="S18">
-        <v>0.009338656556799274</v>
+        <v>0.05545809492280707</v>
       </c>
       <c r="T18">
-        <v>0.009338656556799274</v>
+        <v>0.06261763162975546</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.895335666666667</v>
+      </c>
+      <c r="H19">
+        <v>8.686007</v>
+      </c>
+      <c r="I19">
+        <v>0.4393161543288184</v>
+      </c>
+      <c r="J19">
+        <v>0.4469286313282209</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.945679999999999</v>
+      </c>
+      <c r="N19">
+        <v>17.89136</v>
+      </c>
+      <c r="O19">
+        <v>0.1185353578007432</v>
+      </c>
+      <c r="P19">
+        <v>0.08770560369881859</v>
+      </c>
+      <c r="Q19">
+        <v>25.90074636658666</v>
+      </c>
+      <c r="R19">
+        <v>155.40447819952</v>
+      </c>
+      <c r="S19">
+        <v>0.05207449754101301</v>
+      </c>
+      <c r="T19">
+        <v>0.03919814542092834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6501646666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.950494</v>
+      </c>
+      <c r="I20">
+        <v>0.09865102838639601</v>
+      </c>
+      <c r="J20">
+        <v>0.1003604549056784</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>13.466326</v>
+      </c>
+      <c r="N20">
+        <v>26.932652</v>
+      </c>
+      <c r="O20">
+        <v>0.178436493443925</v>
+      </c>
+      <c r="P20">
+        <v>0.1320271070991917</v>
+      </c>
+      <c r="Q20">
+        <v>8.755329355014666</v>
+      </c>
+      <c r="R20">
+        <v>52.531976130088</v>
+      </c>
+      <c r="S20">
+        <v>0.01760294357990561</v>
+      </c>
+      <c r="T20">
+        <v>0.0132503005283556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6501646666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.950494</v>
+      </c>
+      <c r="I21">
+        <v>0.09865102838639601</v>
+      </c>
+      <c r="J21">
+        <v>0.1003604549056784</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.56078733333333</v>
+      </c>
+      <c r="N21">
+        <v>43.682362</v>
+      </c>
+      <c r="O21">
+        <v>0.1929387298022281</v>
+      </c>
+      <c r="P21">
+        <v>0.2141362048609124</v>
+      </c>
+      <c r="Q21">
+        <v>9.466909442980889</v>
+      </c>
+      <c r="R21">
+        <v>85.202184986828</v>
+      </c>
+      <c r="S21">
+        <v>0.0190336041105548</v>
+      </c>
+      <c r="T21">
+        <v>0.02149080693161671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.6501646666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.950494</v>
+      </c>
+      <c r="I22">
+        <v>0.09865102838639601</v>
+      </c>
+      <c r="J22">
+        <v>0.1003604549056784</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.381108</v>
+      </c>
+      <c r="N22">
+        <v>40.143324</v>
+      </c>
+      <c r="O22">
+        <v>0.1773073063814475</v>
+      </c>
+      <c r="P22">
+        <v>0.1967874139191919</v>
+      </c>
+      <c r="Q22">
+        <v>8.699923622450667</v>
+      </c>
+      <c r="R22">
+        <v>78.29931260205601</v>
+      </c>
+      <c r="S22">
+        <v>0.01749154811495159</v>
+      </c>
+      <c r="T22">
+        <v>0.01974967438064213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.6501646666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.950494</v>
+      </c>
+      <c r="I23">
+        <v>0.09865102838639601</v>
+      </c>
+      <c r="J23">
+        <v>0.1003604549056784</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>15.58761566666667</v>
+      </c>
+      <c r="N23">
+        <v>46.762847</v>
+      </c>
+      <c r="O23">
+        <v>0.2065447903690724</v>
+      </c>
+      <c r="P23">
+        <v>0.2292371137135739</v>
+      </c>
+      <c r="Q23">
+        <v>10.13451694404645</v>
+      </c>
+      <c r="R23">
+        <v>91.21065249641801</v>
+      </c>
+      <c r="S23">
+        <v>0.02037585597776158</v>
+      </c>
+      <c r="T23">
+        <v>0.02300634101355901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.6501646666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.950494</v>
+      </c>
+      <c r="I24">
+        <v>0.09865102838639601</v>
+      </c>
+      <c r="J24">
+        <v>0.1003604549056784</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>9.526935333333334</v>
+      </c>
+      <c r="N24">
+        <v>28.580806</v>
+      </c>
+      <c r="O24">
+        <v>0.1262373222025838</v>
+      </c>
+      <c r="P24">
+        <v>0.1401065567083116</v>
+      </c>
+      <c r="Q24">
+        <v>6.194076735351556</v>
+      </c>
+      <c r="R24">
+        <v>55.74669061816401</v>
+      </c>
+      <c r="S24">
+        <v>0.01245344165602971</v>
+      </c>
+      <c r="T24">
+        <v>0.01406115776651438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.6501646666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.950494</v>
+      </c>
+      <c r="I25">
+        <v>0.09865102838639601</v>
+      </c>
+      <c r="J25">
+        <v>0.1003604549056784</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.945679999999999</v>
+      </c>
+      <c r="N25">
+        <v>17.89136</v>
+      </c>
+      <c r="O25">
+        <v>0.1185353578007432</v>
+      </c>
+      <c r="P25">
+        <v>0.08770560369881859</v>
+      </c>
+      <c r="Q25">
+        <v>5.816165055306667</v>
+      </c>
+      <c r="R25">
+        <v>34.89699033184</v>
+      </c>
+      <c r="S25">
+        <v>0.01169363494719273</v>
+      </c>
+      <c r="T25">
+        <v>0.008802174284990584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.1008275</v>
+      </c>
+      <c r="H26">
+        <v>0.201655</v>
+      </c>
+      <c r="I26">
+        <v>0.01529879594291909</v>
+      </c>
+      <c r="J26">
+        <v>0.01037592914103021</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>13.466326</v>
+      </c>
+      <c r="N26">
+        <v>26.932652</v>
+      </c>
+      <c r="O26">
+        <v>0.178436493443925</v>
+      </c>
+      <c r="P26">
+        <v>0.1320271070991917</v>
+      </c>
+      <c r="Q26">
+        <v>1.357775984765</v>
+      </c>
+      <c r="R26">
+        <v>5.43110393906</v>
+      </c>
+      <c r="S26">
+        <v>0.002729863501968628</v>
+      </c>
+      <c r="T26">
+        <v>0.001369903907956419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.460258554205749</v>
-      </c>
-      <c r="H19">
-        <v>0.460258554205749</v>
-      </c>
-      <c r="I19">
-        <v>0.08025573911860565</v>
-      </c>
-      <c r="J19">
-        <v>0.08025573911860565</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>8.94520610742514</v>
-      </c>
-      <c r="N19">
-        <v>8.94520610742514</v>
-      </c>
-      <c r="O19">
-        <v>0.1224328177196345</v>
-      </c>
-      <c r="P19">
-        <v>0.1224328177196345</v>
-      </c>
-      <c r="Q19">
-        <v>4.117107630075931</v>
-      </c>
-      <c r="R19">
-        <v>4.117107630075931</v>
-      </c>
-      <c r="S19">
-        <v>0.009825936278462784</v>
-      </c>
-      <c r="T19">
-        <v>0.009825936278462784</v>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.1008275</v>
+      </c>
+      <c r="H27">
+        <v>0.201655</v>
+      </c>
+      <c r="I27">
+        <v>0.01529879594291909</v>
+      </c>
+      <c r="J27">
+        <v>0.01037592914103021</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>14.56078733333333</v>
+      </c>
+      <c r="N27">
+        <v>43.682362</v>
+      </c>
+      <c r="O27">
+        <v>0.1929387298022281</v>
+      </c>
+      <c r="P27">
+        <v>0.2141362048609124</v>
+      </c>
+      <c r="Q27">
+        <v>1.468127784851667</v>
+      </c>
+      <c r="R27">
+        <v>8.808766709109999</v>
+      </c>
+      <c r="S27">
+        <v>0.00295173025673029</v>
+      </c>
+      <c r="T27">
+        <v>0.002221862088165955</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.1008275</v>
+      </c>
+      <c r="H28">
+        <v>0.201655</v>
+      </c>
+      <c r="I28">
+        <v>0.01529879594291909</v>
+      </c>
+      <c r="J28">
+        <v>0.01037592914103021</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>13.381108</v>
+      </c>
+      <c r="N28">
+        <v>40.143324</v>
+      </c>
+      <c r="O28">
+        <v>0.1773073063814475</v>
+      </c>
+      <c r="P28">
+        <v>0.1967874139191919</v>
+      </c>
+      <c r="Q28">
+        <v>1.34918366687</v>
+      </c>
+      <c r="R28">
+        <v>8.095102001220001</v>
+      </c>
+      <c r="S28">
+        <v>0.002712588299518401</v>
+      </c>
+      <c r="T28">
+        <v>0.002041852262672117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.1008275</v>
+      </c>
+      <c r="H29">
+        <v>0.201655</v>
+      </c>
+      <c r="I29">
+        <v>0.01529879594291909</v>
+      </c>
+      <c r="J29">
+        <v>0.01037592914103021</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>15.58761566666667</v>
+      </c>
+      <c r="N29">
+        <v>46.762847</v>
+      </c>
+      <c r="O29">
+        <v>0.2065447903690724</v>
+      </c>
+      <c r="P29">
+        <v>0.2292371137135739</v>
+      </c>
+      <c r="Q29">
+        <v>1.571660318630833</v>
+      </c>
+      <c r="R29">
+        <v>9.429961911785</v>
+      </c>
+      <c r="S29">
+        <v>0.003159886600929439</v>
+      </c>
+      <c r="T29">
+        <v>0.002378548048386328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.1008275</v>
+      </c>
+      <c r="H30">
+        <v>0.201655</v>
+      </c>
+      <c r="I30">
+        <v>0.01529879594291909</v>
+      </c>
+      <c r="J30">
+        <v>0.01037592914103021</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>9.526935333333334</v>
+      </c>
+      <c r="N30">
+        <v>28.580806</v>
+      </c>
+      <c r="O30">
+        <v>0.1262373222025838</v>
+      </c>
+      <c r="P30">
+        <v>0.1401065567083116</v>
+      </c>
+      <c r="Q30">
+        <v>0.9605770723216668</v>
+      </c>
+      <c r="R30">
+        <v>5.763462433930001</v>
+      </c>
+      <c r="S30">
+        <v>0.001931279032757859</v>
+      </c>
+      <c r="T30">
+        <v>0.001453735704599172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.1008275</v>
+      </c>
+      <c r="H31">
+        <v>0.201655</v>
+      </c>
+      <c r="I31">
+        <v>0.01529879594291909</v>
+      </c>
+      <c r="J31">
+        <v>0.01037592914103021</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>8.945679999999999</v>
+      </c>
+      <c r="N31">
+        <v>17.89136</v>
+      </c>
+      <c r="O31">
+        <v>0.1185353578007432</v>
+      </c>
+      <c r="P31">
+        <v>0.08770560369881859</v>
+      </c>
+      <c r="Q31">
+        <v>0.9019705501999999</v>
+      </c>
+      <c r="R31">
+        <v>3.6078822008</v>
+      </c>
+      <c r="S31">
+        <v>0.001813448251014473</v>
+      </c>
+      <c r="T31">
+        <v>0.0009100271292502187</v>
       </c>
     </row>
   </sheetData>
